--- a/Myhoken_ver2/todouhuken.xlsx
+++ b/Myhoken_ver2/todouhuken.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="37755" windowHeight="16440" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="37755" windowHeight="16440" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9796" uniqueCount="6017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9871" uniqueCount="6052">
   <si>
     <t>都道府県コード</t>
   </si>
@@ -18520,12 +18520,117 @@
   <si>
     <t>select * from saitama;</t>
   </si>
+  <si>
+    <t>-----------+----------+----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | aichi     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | akita     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | aomori    | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | aria      | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | chiba     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | ehime     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | fukui     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | fukuoka   | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | fukushima | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | gifu      | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | gunma     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | hiroshima | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | hokkaido  | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | hyougo    | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | ibaragi   | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | ishikawa  | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | iwate     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kagawa    | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kagoshima | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kanagawa  | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kouchi    | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kumamoto  | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | kyoto     | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | mie       | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | miyagi    | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | miyazaki  | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public   | yamanashi | テーブル | postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fukuoka  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gunma    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyougo   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibaragi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kouchi   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooita    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oosaka   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18740,6 +18845,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFA9B7C6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -19254,7 +19365,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19306,6 +19417,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -19353,55 +19467,7 @@
     <cellStyle name="標準_Sheet1" xfId="43"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -20558,8 +20624,8 @@
   </sheetPr>
   <dimension ref="A1:G1789"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C1702" sqref="C1702:C1742"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G1703" sqref="G1703:G1728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49780,7 +49846,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="1697" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="1697" spans="1:7" ht="13.5" hidden="1" customHeight="1">
       <c r="A1697" s="12" t="s">
         <v>5496</v>
       </c>
@@ -49797,7 +49863,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="1698" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="1698" spans="1:7" ht="13.5" hidden="1" customHeight="1">
       <c r="A1698" s="12" t="s">
         <v>5499</v>
       </c>
@@ -49814,7 +49880,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="1699" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="1699" spans="1:7" ht="13.5" hidden="1" customHeight="1">
       <c r="A1699" s="12" t="s">
         <v>5502</v>
       </c>
@@ -49831,7 +49897,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="1700" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="1700" spans="1:7" ht="13.5" hidden="1" customHeight="1">
       <c r="A1700" s="12" t="s">
         <v>5505</v>
       </c>
@@ -49848,7 +49914,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="1701" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="1701" spans="1:7" ht="13.5" hidden="1" customHeight="1">
       <c r="A1701" s="12" t="s">
         <v>5508</v>
       </c>
@@ -49865,7 +49931,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="1702" spans="1:5" ht="13.5" customHeight="1">
+    <row r="1702" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1702" s="12" t="s">
         <v>5514</v>
       </c>
@@ -49881,8 +49947,11 @@
       <c r="E1702" s="12" t="s">
         <v>5516</v>
       </c>
-    </row>
-    <row r="1703" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1702" s="8" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1703" s="12" t="s">
         <v>5517</v>
       </c>
@@ -49898,8 +49967,11 @@
       <c r="E1703" s="12" t="s">
         <v>5519</v>
       </c>
-    </row>
-    <row r="1704" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1703" s="8" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1704" s="12" t="s">
         <v>5520</v>
       </c>
@@ -49915,8 +49987,11 @@
       <c r="E1704" s="12" t="s">
         <v>5522</v>
       </c>
-    </row>
-    <row r="1705" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1704" s="8" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1705" s="12" t="s">
         <v>5523</v>
       </c>
@@ -49932,8 +50007,11 @@
       <c r="E1705" s="12" t="s">
         <v>5525</v>
       </c>
-    </row>
-    <row r="1706" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1705" s="8" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1706" s="12" t="s">
         <v>5526</v>
       </c>
@@ -49949,8 +50027,11 @@
       <c r="E1706" s="12" t="s">
         <v>5528</v>
       </c>
-    </row>
-    <row r="1707" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1706" s="8" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1707" s="12" t="s">
         <v>5529</v>
       </c>
@@ -49966,8 +50047,11 @@
       <c r="E1707" s="12" t="s">
         <v>5531</v>
       </c>
-    </row>
-    <row r="1708" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1707" s="8" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1708" s="12" t="s">
         <v>5532</v>
       </c>
@@ -49983,8 +50067,11 @@
       <c r="E1708" s="12" t="s">
         <v>5534</v>
       </c>
-    </row>
-    <row r="1709" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1708" s="8" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1709" s="12" t="s">
         <v>5535</v>
       </c>
@@ -50000,8 +50087,11 @@
       <c r="E1709" s="12" t="s">
         <v>5537</v>
       </c>
-    </row>
-    <row r="1710" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1709" s="8" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1710" s="12" t="s">
         <v>5538</v>
       </c>
@@ -50017,8 +50107,11 @@
       <c r="E1710" s="12" t="s">
         <v>5540</v>
       </c>
-    </row>
-    <row r="1711" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1710" s="8" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1711" s="12" t="s">
         <v>5541</v>
       </c>
@@ -50034,8 +50127,11 @@
       <c r="E1711" s="12" t="s">
         <v>5543</v>
       </c>
-    </row>
-    <row r="1712" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1711" s="8" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1712" s="12" t="s">
         <v>5544</v>
       </c>
@@ -50051,8 +50147,11 @@
       <c r="E1712" s="12" t="s">
         <v>5546</v>
       </c>
-    </row>
-    <row r="1713" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1712" s="8" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1713" s="12" t="s">
         <v>5547</v>
       </c>
@@ -50068,8 +50167,11 @@
       <c r="E1713" s="12" t="s">
         <v>5549</v>
       </c>
-    </row>
-    <row r="1714" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1713" s="8" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1714" s="12" t="s">
         <v>5550</v>
       </c>
@@ -50085,8 +50187,11 @@
       <c r="E1714" s="12" t="s">
         <v>5552</v>
       </c>
-    </row>
-    <row r="1715" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1714" s="8" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1715" s="12" t="s">
         <v>5553</v>
       </c>
@@ -50102,8 +50207,11 @@
       <c r="E1715" s="12" t="s">
         <v>5555</v>
       </c>
-    </row>
-    <row r="1716" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1715" s="8" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1716" s="12" t="s">
         <v>5556</v>
       </c>
@@ -50119,8 +50227,11 @@
       <c r="E1716" s="12" t="s">
         <v>5558</v>
       </c>
-    </row>
-    <row r="1717" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1716" s="8" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1717" s="12" t="s">
         <v>5559</v>
       </c>
@@ -50136,8 +50247,11 @@
       <c r="E1717" s="12" t="s">
         <v>5561</v>
       </c>
-    </row>
-    <row r="1718" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1717" s="8" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1718" s="12" t="s">
         <v>5562</v>
       </c>
@@ -50153,8 +50267,11 @@
       <c r="E1718" s="12" t="s">
         <v>5564</v>
       </c>
-    </row>
-    <row r="1719" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1718" s="8" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1719" s="12" t="s">
         <v>5565</v>
       </c>
@@ -50170,8 +50287,11 @@
       <c r="E1719" s="12" t="s">
         <v>5567</v>
       </c>
-    </row>
-    <row r="1720" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1719" s="8" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1720" s="12" t="s">
         <v>5568</v>
       </c>
@@ -50187,8 +50307,11 @@
       <c r="E1720" s="12" t="s">
         <v>5570</v>
       </c>
-    </row>
-    <row r="1721" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1720" s="8" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1721" s="12" t="s">
         <v>5571</v>
       </c>
@@ -50204,8 +50327,11 @@
       <c r="E1721" s="12" t="s">
         <v>5573</v>
       </c>
-    </row>
-    <row r="1722" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1721" s="8" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1722" s="12" t="s">
         <v>5574</v>
       </c>
@@ -50221,8 +50347,11 @@
       <c r="E1722" s="12" t="s">
         <v>5576</v>
       </c>
-    </row>
-    <row r="1723" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1722" s="8" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1723" s="12" t="s">
         <v>5577</v>
       </c>
@@ -50238,8 +50367,11 @@
       <c r="E1723" s="12" t="s">
         <v>5579</v>
       </c>
-    </row>
-    <row r="1724" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1723" s="8" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1724" s="12" t="s">
         <v>5580</v>
       </c>
@@ -50255,8 +50387,11 @@
       <c r="E1724" s="12" t="s">
         <v>5582</v>
       </c>
-    </row>
-    <row r="1725" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1724" s="8" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1725" s="12" t="s">
         <v>5583</v>
       </c>
@@ -50272,8 +50407,11 @@
       <c r="E1725" s="12" t="s">
         <v>5585</v>
       </c>
-    </row>
-    <row r="1726" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1725" s="8" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1726" s="12" t="s">
         <v>5586</v>
       </c>
@@ -50289,8 +50427,11 @@
       <c r="E1726" s="12" t="s">
         <v>5588</v>
       </c>
-    </row>
-    <row r="1727" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1726" s="8" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1727" s="12" t="s">
         <v>5589</v>
       </c>
@@ -50306,8 +50447,11 @@
       <c r="E1727" s="12" t="s">
         <v>5591</v>
       </c>
-    </row>
-    <row r="1728" spans="1:5" ht="13.5" customHeight="1">
+      <c r="G1727" s="8" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1728" s="12" t="s">
         <v>5592</v>
       </c>
@@ -50322,6 +50466,9 @@
       </c>
       <c r="E1728" s="12" t="s">
         <v>5594</v>
+      </c>
+      <c r="G1728" s="8" t="s">
+        <v>6043</v>
       </c>
     </row>
     <row r="1729" spans="1:5" ht="13.5" customHeight="1">
@@ -51185,7 +51332,7 @@
       </filters>
     </filterColumn>
     <sortState ref="A1355:E1777">
-      <sortCondition sortBy="cellColor" ref="B1:B1789" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="B1:B1789" dxfId="0"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
@@ -51196,10 +51343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51210,7 +51357,7 @@
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51226,8 +51373,12 @@
       <c r="E1" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" s="17"/>
+      <c r="J1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -51243,8 +51394,12 @@
       <c r="E2" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -51260,8 +51415,12 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -51277,8 +51436,12 @@
       <c r="E4" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -51294,8 +51457,12 @@
       <c r="E5" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -51311,8 +51478,12 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -51328,8 +51499,12 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -51345,8 +51520,12 @@
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -51362,8 +51541,12 @@
       <c r="E9" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -51379,8 +51562,12 @@
       <c r="E10" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -51396,8 +51583,12 @@
       <c r="E11" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -51413,8 +51604,12 @@
       <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -51430,8 +51625,12 @@
       <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -51447,8 +51646,12 @@
       <c r="E14" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -51464,8 +51667,12 @@
       <c r="E15" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -51481,8 +51688,12 @@
       <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -51498,8 +51709,12 @@
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" s="17"/>
+      <c r="J17" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -51515,8 +51730,12 @@
       <c r="E18" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -51532,8 +51751,12 @@
       <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -51549,8 +51772,12 @@
       <c r="E20" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -51566,8 +51793,12 @@
       <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -51583,8 +51814,12 @@
       <c r="E22" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -51600,8 +51835,12 @@
       <c r="E23" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -51617,8 +51856,12 @@
       <c r="E24" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" s="17"/>
+      <c r="J24" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -51634,8 +51877,12 @@
       <c r="E25" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" s="17"/>
+      <c r="J25" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -51651,8 +51898,12 @@
       <c r="E26" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" s="17"/>
+      <c r="J26" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -51668,8 +51919,12 @@
       <c r="E27" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27" s="17"/>
+      <c r="J27" s="17" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -51685,8 +51940,12 @@
       <c r="E28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" s="17"/>
+      <c r="J28" s="17" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -51702,8 +51961,12 @@
       <c r="E29" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" s="17"/>
+      <c r="J29" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -51719,8 +51982,12 @@
       <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30" s="17"/>
+      <c r="J30" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -51736,8 +52003,12 @@
       <c r="E31" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31" s="17"/>
+      <c r="J31" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -51753,8 +52024,12 @@
       <c r="E32" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32" s="17"/>
+      <c r="J32" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -51770,8 +52045,12 @@
       <c r="E33" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33" s="17"/>
+      <c r="J33" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -51787,8 +52066,12 @@
       <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34" s="17"/>
+      <c r="J34" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -51804,8 +52087,12 @@
       <c r="E35" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -51821,8 +52108,12 @@
       <c r="E36" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36" s="17"/>
+      <c r="J36" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -51838,8 +52129,12 @@
       <c r="E37" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37" s="17"/>
+      <c r="J37" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -51855,8 +52150,12 @@
       <c r="E38" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38" s="17"/>
+      <c r="J38" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -51872,8 +52171,12 @@
       <c r="E39" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39" s="17"/>
+      <c r="J39" s="17" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -51889,8 +52192,12 @@
       <c r="E40" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40" s="17"/>
+      <c r="J40" s="17" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -51906,8 +52213,12 @@
       <c r="E41" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41" s="17"/>
+      <c r="J41" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -51923,8 +52234,12 @@
       <c r="E42" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42" s="17"/>
+      <c r="J42" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -51940,8 +52255,12 @@
       <c r="E43" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -51957,8 +52276,12 @@
       <c r="E44" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -51974,8 +52297,12 @@
       <c r="E45" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45" s="17"/>
+      <c r="J45" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -51991,8 +52318,12 @@
       <c r="E46" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46" s="17"/>
+      <c r="J46" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -52008,8 +52339,12 @@
       <c r="E47" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47" s="17"/>
+      <c r="J47" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -52024,11 +52359,21 @@
       </c>
       <c r="E48" s="1" t="s">
         <v>297</v>
+      </c>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="8:8" ht="14.25">
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" t="s">
+        <v>6044</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
